--- a/Verantwoordelijkheidsstructuur.xlsx
+++ b/Verantwoordelijkheidsstructuur.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="176" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAF3D3A4-55C8-4AC2-8BFE-D7B9AB721660}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27B1B6E9-92BE-4881-A208-457ECEA601F8}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="144">
   <si>
     <t>Taak</t>
   </si>
@@ -48,6 +48,9 @@
     <t>Opdracht verkennen</t>
   </si>
   <si>
+    <t>OPDRACHT VERKENNEN</t>
+  </si>
+  <si>
     <t>Brainstormen</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
     <t>CAD model</t>
   </si>
   <si>
+    <t>CAD MODEL</t>
+  </si>
+  <si>
     <t>3D modellen</t>
   </si>
   <si>
@@ -144,38 +150,353 @@
     <t>Rapportering/verslag</t>
   </si>
   <si>
+    <t>BOUW</t>
+  </si>
+  <si>
     <t>feedback P&amp;O 1 lezen</t>
   </si>
   <si>
+    <t>coderen microcontroller</t>
+  </si>
+  <si>
     <t>inleiding met o.a. probleemstelling</t>
   </si>
   <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>brandlocalisatie</t>
+  </si>
+  <si>
     <t>ontwerpproces</t>
   </si>
   <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>beweging armen</t>
+  </si>
+  <si>
     <t>planning</t>
   </si>
   <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>relatie brandlocalisatie - beweging van armen</t>
+  </si>
+  <si>
     <t>resultaten (met experimenten en berekeningen)</t>
   </si>
   <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>water spuiten</t>
+  </si>
+  <si>
     <t>elektronisch circuit</t>
   </si>
   <si>
+    <t>3.1.5</t>
+  </si>
+  <si>
+    <t>relatie juist gericht - water spuiten</t>
+  </si>
+  <si>
     <t>mogelijke verbeteringen aan ontwerp</t>
   </si>
   <si>
+    <t>communicatie met PC</t>
+  </si>
+  <si>
     <t>financieel rapport</t>
   </si>
   <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>automatische werking</t>
+  </si>
+  <si>
     <t>bibliografie</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>manuele override</t>
+  </si>
+  <si>
+    <t>testen van onderdelen en mogelijke aanpassingen</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>detectie brand</t>
+  </si>
+  <si>
+    <t>3.3.2</t>
+  </si>
+  <si>
+    <t>locatievaststelling brand</t>
+  </si>
+  <si>
+    <t>3.3.3</t>
+  </si>
+  <si>
+    <t>beweging arm 1 richting brand</t>
+  </si>
+  <si>
+    <t>3.3.4</t>
+  </si>
+  <si>
+    <t>beweging arm 2 afstand brand</t>
+  </si>
+  <si>
+    <t>3.3.5</t>
+  </si>
+  <si>
+    <t>spuitdruk</t>
+  </si>
+  <si>
+    <t>3.3.6</t>
+  </si>
+  <si>
+    <t>stoppen wanneer cilinders gevuld</t>
+  </si>
+  <si>
+    <t>in elkaar steken</t>
+  </si>
+  <si>
+    <t>testen geheel</t>
+  </si>
+  <si>
+    <t>aanpassingen maken</t>
+  </si>
+  <si>
+    <t>RAPPORTERING/VERSLAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inleiding </t>
+  </si>
+  <si>
+    <t>Probleem Schetsen</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>Huidige Problemen bij Sprinklers</t>
+  </si>
+  <si>
+    <t>4.3.2</t>
+  </si>
+  <si>
+    <t>Blusplatform</t>
+  </si>
+  <si>
+    <t>4.3.3</t>
+  </si>
+  <si>
+    <t>Voordelen van het Blusplatform</t>
+  </si>
+  <si>
+    <t>Ontwerp en Materialen</t>
+  </si>
+  <si>
+    <t>4.4.1</t>
+  </si>
+  <si>
+    <t>Ontwerpproces</t>
+  </si>
+  <si>
+    <t>4.4.2</t>
+  </si>
+  <si>
+    <t>4.4.3</t>
+  </si>
+  <si>
+    <t>Solid Edge</t>
+  </si>
+  <si>
+    <t>Elektronisch Circuit</t>
+  </si>
+  <si>
+    <t>4.5.1</t>
+  </si>
+  <si>
+    <t>Motoren</t>
+  </si>
+  <si>
+    <t>4.5.2</t>
+  </si>
+  <si>
+    <t>Sensoren en Webcams</t>
+  </si>
+  <si>
+    <t>4.5.3</t>
+  </si>
+  <si>
+    <t>Moederbord</t>
+  </si>
+  <si>
+    <t>4.5.4</t>
+  </si>
+  <si>
+    <t>Bekabeling</t>
+  </si>
+  <si>
+    <t>Programmeercode</t>
+  </si>
+  <si>
+    <t>4.6.1</t>
+  </si>
+  <si>
+    <t>LabView</t>
+  </si>
+  <si>
+    <t>4.6.2</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>4.6.3</t>
+  </si>
+  <si>
+    <t>Raspberry PI</t>
+  </si>
+  <si>
+    <t>Resultaten</t>
+  </si>
+  <si>
+    <t>4.7.1</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>4.7.2</t>
+  </si>
+  <si>
+    <t>Resultaten Demo</t>
+  </si>
+  <si>
+    <t>Financieel rapport</t>
+  </si>
+  <si>
+    <t>Mogelijke verbeteringen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Besluit</t>
+  </si>
+  <si>
+    <t>POWERPOINT LATEX</t>
+  </si>
+  <si>
+    <t>5.3.1</t>
+  </si>
+  <si>
+    <t>5.3.2</t>
+  </si>
+  <si>
+    <t>5.3.3</t>
+  </si>
+  <si>
+    <t>5.4.1</t>
+  </si>
+  <si>
+    <t>5.4.2</t>
+  </si>
+  <si>
+    <t>5.4.3</t>
+  </si>
+  <si>
+    <t>5.5.1</t>
+  </si>
+  <si>
+    <t>5.5.2</t>
+  </si>
+  <si>
+    <t>5.5.3</t>
+  </si>
+  <si>
+    <t>5.5.4</t>
+  </si>
+  <si>
+    <t>5.6.1</t>
+  </si>
+  <si>
+    <t>5.6.2</t>
+  </si>
+  <si>
+    <t>5.6.3</t>
+  </si>
+  <si>
+    <t>5.7.1</t>
+  </si>
+  <si>
+    <t>5.7.2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>5.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>LABVIEW</t>
+  </si>
+  <si>
+    <t>Sensoren</t>
+  </si>
+  <si>
+    <t>Webcam</t>
+  </si>
+  <si>
+    <t>Overige code</t>
+  </si>
+  <si>
+    <t>Handmatige override</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +512,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,7 +536,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -295,11 +631,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -327,6 +672,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -643,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="Q99" sqref="Q99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -654,9 +1006,11 @@
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="6" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="44.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -673,8 +1027,20 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -685,13 +1051,19 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="11">
         <v>4</v>
@@ -706,15 +1078,21 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:17">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="11">
         <v>4</v>
@@ -728,13 +1106,19 @@
       <c r="F4" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="L4" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="11">
         <v>2</v>
@@ -748,13 +1132,19 @@
       <c r="F5" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="L5" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="4">
         <v>1.4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -768,13 +1158,19 @@
       <c r="F6" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="L6" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="4">
         <v>1.5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="11">
         <v>3</v>
@@ -788,13 +1184,19 @@
       <c r="F7" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="L7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="4">
         <v>1.6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="11">
         <v>2</v>
@@ -808,13 +1210,19 @@
       <c r="F8" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="L8" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="4">
         <v>1.7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="11">
         <v>4</v>
@@ -828,13 +1236,19 @@
       <c r="F9" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="L9" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="4">
         <v>1.8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="11">
         <v>2</v>
@@ -848,13 +1262,19 @@
       <c r="F10" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="L10" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="4">
         <v>1.9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
@@ -868,45 +1288,65 @@
       <c r="F11" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="L11" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="4">
         <v>2.1</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="L14" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
@@ -920,13 +1360,19 @@
       <c r="F15" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="L15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" s="11">
         <v>2</v>
@@ -940,13 +1386,19 @@
       <c r="F16" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="L16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="11">
         <v>3</v>
@@ -960,13 +1412,19 @@
       <c r="F17" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="L17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="11">
         <v>4</v>
@@ -980,13 +1438,19 @@
       <c r="F18" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="L18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
@@ -1000,13 +1464,19 @@
       <c r="F19" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="L19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="11">
         <v>3</v>
@@ -1020,37 +1490,55 @@
       <c r="F20" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="L20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="L21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="L22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23" s="11">
         <v>4</v>
@@ -1064,13 +1552,19 @@
       <c r="F23" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="L23" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="4">
         <v>2.2999999999999998</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
@@ -1084,13 +1578,19 @@
       <c r="F24" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="L24" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="4">
         <v>2.4</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" s="11">
         <v>4</v>
@@ -1104,33 +1604,46 @@
       <c r="F25" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="L25" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="8"/>
       <c r="B26" s="6"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="3">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="L27" s="13">
+        <v>3</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="4">
         <v>3.1</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28" s="11">
         <v>1</v>
@@ -1144,13 +1657,19 @@
       <c r="F28" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="L28" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="4">
         <v>3.2</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C29" s="11">
         <v>2</v>
@@ -1164,13 +1683,19 @@
       <c r="F29" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="L29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="4">
         <v>3.3</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11">
         <v>4</v>
@@ -1184,13 +1709,19 @@
       <c r="F30" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="L30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="4">
         <v>3.4</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C31" s="11">
         <v>1</v>
@@ -1204,13 +1735,19 @@
       <c r="F31" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="L31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="4">
         <v>3.5</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C32" s="11">
         <v>2</v>
@@ -1224,13 +1761,19 @@
       <c r="F32" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="L32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="4">
         <v>3.6</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C33" s="11">
         <v>3</v>
@@ -1244,13 +1787,19 @@
       <c r="F33" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="L33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="4">
         <v>3.7</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C34" s="12">
         <v>4</v>
@@ -1264,13 +1813,19 @@
       <c r="F34" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="L34" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="4">
         <v>3.8</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C35" s="11">
         <v>4</v>
@@ -1284,13 +1839,19 @@
       <c r="F35" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="L35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="4">
         <v>3.9</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C36" s="11">
         <v>2</v>
@@ -1304,8 +1865,14 @@
       <c r="F36" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="L36" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="C37" s="4">
         <f>SUM(C2:C36)</f>
         <v>70</v>
@@ -1321,6 +1888,559 @@
       <c r="F37" s="4">
         <f t="shared" si="0"/>
         <v>68</v>
+      </c>
+      <c r="L37" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="M37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="L38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="L39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="L40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="L41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="L42" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="L43" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="L44" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="M44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="L45" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="L46" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="M46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="L47" s="4"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="L48" s="13">
+        <v>4</v>
+      </c>
+      <c r="M48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="12:13">
+      <c r="L49" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="12:13">
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="12:13">
+      <c r="L51" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="12:13">
+      <c r="L52" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="M52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="12:13">
+      <c r="L53" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="12:13">
+      <c r="L54" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="12:13">
+      <c r="L55" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="12:13">
+      <c r="L56" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="12:13">
+      <c r="L57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="12:13">
+      <c r="L58" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="12:13">
+      <c r="L59" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="12:13">
+      <c r="L60" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="12:13">
+      <c r="L61" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="12:13">
+      <c r="L62" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="12:13">
+      <c r="L63" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="12:13">
+      <c r="L64" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13">
+      <c r="L65" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="12:13">
+      <c r="L66" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="12:13">
+      <c r="L67" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="12:13">
+      <c r="L68" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="12:13">
+      <c r="L69" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="M69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="12:13">
+      <c r="L70" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="12:13">
+      <c r="L71" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="12:13">
+      <c r="L72" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="12:13">
+      <c r="L73" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="12:13">
+      <c r="L74" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="12:13">
+      <c r="L75" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="M75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="12:13">
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+    </row>
+    <row r="78" spans="12:13">
+      <c r="L78" s="3">
+        <v>5</v>
+      </c>
+      <c r="M78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="12:13">
+      <c r="L79" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="M79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="12:13">
+      <c r="L80" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="M80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="12:13">
+      <c r="L81" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="12:13">
+      <c r="L82" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="12:13">
+      <c r="L83" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="12:13">
+      <c r="L84" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="M84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="12:13">
+      <c r="L85" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="12:13">
+      <c r="L86" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="12:13">
+      <c r="L87" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="12:13">
+      <c r="L88" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="12:13">
+      <c r="L89" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M89" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="12:13">
+      <c r="L90" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="12:13">
+      <c r="L91" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="12:13">
+      <c r="L92" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M92" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="12:13">
+      <c r="L93" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="M93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="12:13">
+      <c r="L94" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M94" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="12:13">
+      <c r="L95" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="12:13">
+      <c r="L96" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M96" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="12:13">
+      <c r="L97" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="M97" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="12:13">
+      <c r="L98" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M98" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="12:13">
+      <c r="L99" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M99" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="12:13">
+      <c r="L100" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="M100" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="12:13">
+      <c r="L101" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="M101" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="12:13">
+      <c r="L102" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M102" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" spans="12:13">
+      <c r="L103" s="4">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="M103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="12:13">
+      <c r="L105" s="3">
+        <v>6</v>
+      </c>
+      <c r="M105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="12:13">
+      <c r="L106" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="M106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="12:13">
+      <c r="L107" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="M107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="12:13">
+      <c r="L108" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="M108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="12:13">
+      <c r="L109" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="M109" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
